--- a/data/trans_orig/P78DS2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78DS2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E1DD4CD-288C-4358-B67B-C42E6206A5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{474407BE-1C04-41EC-9EB7-555C3428DD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2181326F-7D29-4542-BA00-4A7FE3949789}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3CD8C0D0-429E-4CE7-9822-69980FA24574}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="154">
   <si>
     <t>Población según si en los últimos 12 meses ha tenido algún retraso en el pago de recibos como la hipoteca, el alquiler, o suministros como la luz, el agua, impuestos / respuesta 2 en 2023 (Tasa respuesta: 95,8%)</t>
   </si>
@@ -74,19 +74,19 @@
     <t>3,52%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>3,01%</t>
@@ -95,7 +95,7 @@
     <t>2,25%</t>
   </si>
   <si>
-    <t>3,86%</t>
+    <t>4,06%</t>
   </si>
   <si>
     <t>Actividades extraescolares</t>
@@ -131,25 +131,19 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>4,0%</t>
+    <t>3,88%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
   </si>
   <si>
     <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
@@ -158,39 +152,42 @@
     <t>0,19%</t>
   </si>
   <si>
+    <t>0,65%</t>
+  </si>
+  <si>
     <t>0,11%</t>
   </si>
   <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>Cuotas de seguros</t>
+  </si>
+  <si>
+    <t>Cuotas de compras aplazadas</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>Alquiler</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>Cuotas de seguros</t>
-  </si>
-  <si>
-    <t>Cuotas de compras aplazadas</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>Alquiler</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
@@ -200,28 +197,28 @@
     <t>94,65%</t>
   </si>
   <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
   </si>
   <si>
     <t>94,82%</t>
   </si>
   <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>100%</t>
@@ -233,283 +230,271 @@
     <t>1,55%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>0,03%</t>
-  </si>
-  <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>0,87%</t>
+    <t>2,04%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
     <t>1,2%</t>
   </si>
   <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>97,35%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2270F19-805B-43A9-ADE3-7AC6EC79AFA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B827417C-5050-4FF9-BA58-7E1E5B8BB42E}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1282,19 +1267,19 @@
         <v>23924</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1318,13 +1303,13 @@
         <v>1445</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -1333,19 +1318,19 @@
         <v>1445</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1396,7 +1381,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1405,13 +1390,13 @@
         <v>991</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -1420,13 +1405,13 @@
         <v>1473</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -1435,19 +1420,19 @@
         <v>2464</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1471,13 +1456,13 @@
         <v>637</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -1486,19 +1471,19 @@
         <v>637</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="7">
         <v>605</v>
@@ -1507,13 +1492,13 @@
         <v>468683</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>1264</v>
@@ -1522,13 +1507,13 @@
         <v>733870</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>1869</v>
@@ -1537,13 +1522,13 @@
         <v>1202553</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1558,13 +1543,13 @@
         <v>495197</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>1324</v>
@@ -1573,13 +1558,13 @@
         <v>773985</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
         <v>1957</v>
@@ -1588,18 +1573,18 @@
         <v>1269182</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>10</v>
@@ -1611,13 +1596,13 @@
         <v>32464</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H15" s="7">
         <v>31</v>
@@ -1626,13 +1611,13 @@
         <v>28013</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M15" s="7">
         <v>61</v>
@@ -1641,13 +1626,13 @@
         <v>60477</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1662,13 @@
         <v>1305</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -1692,13 +1677,13 @@
         <v>1305</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,13 +1713,13 @@
         <v>3124</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1743,13 +1728,13 @@
         <v>3124</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,13 +1749,13 @@
         <v>1187</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1785,7 +1770,7 @@
         <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -1794,13 +1779,13 @@
         <v>1187</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1815,13 +1800,13 @@
         <v>28203</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -1830,13 +1815,13 @@
         <v>22544</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="M19" s="7">
         <v>53</v>
@@ -1845,19 +1830,19 @@
         <v>50747</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -1881,13 +1866,13 @@
         <v>2735</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -1896,19 +1881,19 @@
         <v>2735</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="7">
         <v>4</v>
@@ -1917,28 +1902,28 @@
         <v>9016</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -1947,19 +1932,19 @@
         <v>9016</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -1968,13 +1953,13 @@
         <v>1567</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1989,7 +1974,7 @@
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -1998,7 +1983,7 @@
         <v>1567</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>21</v>
@@ -2010,7 +1995,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -2034,13 +2019,13 @@
         <v>729</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -2049,19 +2034,19 @@
         <v>729</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="7">
         <v>1865</v>
@@ -2070,13 +2055,13 @@
         <v>2028519</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H24" s="7">
         <v>2739</v>
@@ -2085,13 +2070,13 @@
         <v>2083705</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M24" s="7">
         <v>4604</v>
@@ -2100,13 +2085,13 @@
         <v>4112224</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,13 +2106,13 @@
         <v>2100955</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H25" s="7">
         <v>2805</v>
@@ -2136,13 +2121,13 @@
         <v>2142156</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M25" s="7">
         <v>4732</v>
@@ -2151,18 +2136,18 @@
         <v>4243111</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>10</v>
@@ -2174,13 +2159,13 @@
         <v>2593</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2189,13 +2174,13 @@
         <v>2513</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2204,13 +2189,13 @@
         <v>5106</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,7 +2216,7 @@
         <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2246,7 +2231,7 @@
         <v>22</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2261,7 +2246,7 @@
         <v>22</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,7 +2267,7 @@
         <v>22</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2297,7 +2282,7 @@
         <v>22</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2312,7 +2297,7 @@
         <v>22</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,13 +2312,13 @@
         <v>2316</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2348,7 +2333,7 @@
         <v>22</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -2357,13 +2342,13 @@
         <v>2316</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,13 +2363,13 @@
         <v>2356</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2393,13 +2378,13 @@
         <v>2742</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>76</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -2408,19 +2393,19 @@
         <v>5098</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -2435,7 +2420,7 @@
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2450,7 +2435,7 @@
         <v>22</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2465,13 +2450,13 @@
         <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -2486,7 +2471,7 @@
         <v>22</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2495,13 +2480,13 @@
         <v>840</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2510,19 +2495,19 @@
         <v>840</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -2537,7 +2522,7 @@
         <v>22</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -2552,7 +2537,7 @@
         <v>21</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -2561,19 +2546,19 @@
         <v>731</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -2588,7 +2573,7 @@
         <v>22</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2603,7 +2588,7 @@
         <v>22</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2618,13 +2603,13 @@
         <v>22</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="7">
         <v>670</v>
@@ -2633,13 +2618,13 @@
         <v>662872</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H35" s="7">
         <v>975</v>
@@ -2648,13 +2633,13 @@
         <v>696413</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="M35" s="7">
         <v>1645</v>
@@ -2663,13 +2648,13 @@
         <v>1359286</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2669,13 @@
         <v>670138</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H36" s="7">
         <v>984</v>
@@ -2699,13 +2684,13 @@
         <v>703239</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M36" s="7">
         <v>1660</v>
@@ -2714,13 +2699,13 @@
         <v>1373378</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,13 +2722,13 @@
         <v>52503</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H37" s="7">
         <v>66</v>
@@ -2752,13 +2737,13 @@
         <v>51238</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M37" s="7">
         <v>117</v>
@@ -2767,13 +2752,13 @@
         <v>103741</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,7 +2779,7 @@
         <v>22</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -2803,13 +2788,13 @@
         <v>1305</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -2818,13 +2803,13 @@
         <v>1305</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,7 +2830,7 @@
         <v>22</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H39" s="7">
         <v>2</v>
@@ -2854,13 +2839,13 @@
         <v>3124</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
@@ -2869,7 +2854,7 @@
         <v>3124</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>21</v>
@@ -2890,13 +2875,13 @@
         <v>3503</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -2911,7 +2896,7 @@
         <v>22</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M40" s="7">
         <v>3</v>
@@ -2920,13 +2905,13 @@
         <v>3503</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2926,13 @@
         <v>38636</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H41" s="7">
         <v>54</v>
@@ -2956,13 +2941,13 @@
         <v>41134</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="M41" s="7">
         <v>90</v>
@@ -2971,19 +2956,19 @@
         <v>79769</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -2998,7 +2983,7 @@
         <v>22</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H42" s="7">
         <v>5</v>
@@ -3007,13 +2992,13 @@
         <v>4181</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M42" s="7">
         <v>5</v>
@@ -3022,19 +3007,19 @@
         <v>4181</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="7">
         <v>4</v>
@@ -3043,13 +3028,13 @@
         <v>9016</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -3058,13 +3043,13 @@
         <v>840</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M43" s="7">
         <v>5</v>
@@ -3076,16 +3061,16 @@
         <v>24</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="7">
         <v>2</v>
@@ -3094,13 +3079,13 @@
         <v>2558</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="H44" s="7">
         <v>3</v>
@@ -3109,13 +3094,13 @@
         <v>2204</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="M44" s="7">
         <v>5</v>
@@ -3124,19 +3109,19 @@
         <v>4761</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -3151,7 +3136,7 @@
         <v>22</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H45" s="7">
         <v>2</v>
@@ -3160,13 +3145,13 @@
         <v>1366</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="M45" s="7">
         <v>2</v>
@@ -3175,19 +3160,19 @@
         <v>1366</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="7">
         <v>3140</v>
@@ -3196,13 +3181,13 @@
         <v>3160074</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H46" s="7">
         <v>4978</v>
@@ -3211,28 +3196,28 @@
         <v>3513989</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M46" s="7">
         <v>8118</v>
       </c>
       <c r="N46" s="7">
-        <v>6674063</v>
+        <v>6674062</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,13 +3232,13 @@
         <v>3266290</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H47" s="7">
         <v>5113</v>
@@ -3262,33 +3247,33 @@
         <v>3619381</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M47" s="7">
         <v>8349</v>
       </c>
       <c r="N47" s="7">
-        <v>6885671</v>
+        <v>6885670</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78DS2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78DS2_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{474407BE-1C04-41EC-9EB7-555C3428DD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15E32551-DBEE-42F7-BFD6-8536094FA447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3CD8C0D0-429E-4CE7-9822-69980FA24574}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D4E72E69-365D-41C4-B19D-FF8422DB4DDD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -909,7 +909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B827417C-5050-4FF9-BA58-7E1E5B8BB42E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82138560-A9FC-4FD1-9706-12E61DC8BA48}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
